--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
@@ -546,40 +546,40 @@
         <v>0.657207</v>
       </c>
       <c r="I2">
-        <v>0.1403734166508609</v>
+        <v>0.09702050429457308</v>
       </c>
       <c r="J2">
-        <v>0.143767980376711</v>
+        <v>0.09731161031231482</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6561019999999999</v>
+        <v>0.3387653333333334</v>
       </c>
       <c r="N2">
-        <v>1.968306</v>
+        <v>1.016296</v>
       </c>
       <c r="O2">
-        <v>0.1682096017026181</v>
+        <v>0.1020856984836854</v>
       </c>
       <c r="P2">
-        <v>0.1827488337878287</v>
+        <v>0.1038222745268702</v>
       </c>
       <c r="Q2">
-        <v>0.1437316090379999</v>
+        <v>0.074212982808</v>
       </c>
       <c r="R2">
-        <v>1.293584481342</v>
+        <v>0.667916845272</v>
       </c>
       <c r="S2">
-        <v>0.02361215650447698</v>
+        <v>0.009904405948150893</v>
       </c>
       <c r="T2">
-        <v>0.02627343074987537</v>
+        <v>0.01010311272049697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.657207</v>
       </c>
       <c r="I3">
-        <v>0.1403734166508609</v>
+        <v>0.09702050429457308</v>
       </c>
       <c r="J3">
-        <v>0.143767980376711</v>
+        <v>0.09731161031231482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.622048333333333</v>
+        <v>1.622048333333334</v>
       </c>
       <c r="N3">
-        <v>4.866144999999999</v>
+        <v>4.866145</v>
       </c>
       <c r="O3">
-        <v>0.415856229812431</v>
+        <v>0.4887983532827969</v>
       </c>
       <c r="P3">
-        <v>0.4518008499656424</v>
+        <v>0.4971132840014691</v>
       </c>
       <c r="Q3">
-        <v>0.3553405063349999</v>
+        <v>0.355340506335</v>
       </c>
       <c r="R3">
-        <v>3.198064557014999</v>
+        <v>3.198064557015</v>
       </c>
       <c r="S3">
-        <v>0.05837515981431655</v>
+        <v>0.04742346273385385</v>
       </c>
       <c r="T3">
-        <v>0.0649544957320418</v>
+        <v>0.04837489417382605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>0.657207</v>
       </c>
       <c r="I4">
-        <v>0.1403734166508609</v>
+        <v>0.09702050429457308</v>
       </c>
       <c r="J4">
-        <v>0.143767980376711</v>
+        <v>0.09731161031231482</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.527538</v>
+        <v>0.6269413333333334</v>
       </c>
       <c r="N4">
-        <v>1.582614</v>
+        <v>1.880824</v>
       </c>
       <c r="O4">
-        <v>0.1352487217886789</v>
+        <v>0.1889264857530475</v>
       </c>
       <c r="P4">
-        <v>0.1469389733284818</v>
+        <v>0.1921403072182968</v>
       </c>
       <c r="Q4">
-        <v>0.115567222122</v>
+        <v>0.137343410952</v>
       </c>
       <c r="R4">
-        <v>1.040104999098</v>
+        <v>1.236090698568</v>
       </c>
       <c r="S4">
-        <v>0.01898532517513859</v>
+        <v>0.01832974292236214</v>
       </c>
       <c r="T4">
-        <v>0.02112511943406323</v>
+        <v>0.01869748270131535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>0.657207</v>
       </c>
       <c r="I5">
-        <v>0.1403734166508609</v>
+        <v>0.09702050429457308</v>
       </c>
       <c r="J5">
-        <v>0.143767980376711</v>
+        <v>0.09731161031231482</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.930955</v>
+        <v>0.166517</v>
       </c>
       <c r="N5">
-        <v>1.86191</v>
+        <v>0.333034</v>
       </c>
       <c r="O5">
-        <v>0.238675647617384</v>
+        <v>0.05017929103649284</v>
       </c>
       <c r="P5">
-        <v>0.1728704180741694</v>
+        <v>0.03402192606758435</v>
       </c>
       <c r="Q5">
-        <v>0.203943380895</v>
+        <v>0.036478712673</v>
       </c>
       <c r="R5">
-        <v>1.22366028537</v>
+        <v>0.218872276038</v>
       </c>
       <c r="S5">
-        <v>0.03350371612740911</v>
+        <v>0.004868420121504686</v>
       </c>
       <c r="T5">
-        <v>0.02485323087340101</v>
+        <v>0.003310728411563154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>0.657207</v>
       </c>
       <c r="I6">
-        <v>0.1403734166508609</v>
+        <v>0.09702050429457308</v>
       </c>
       <c r="J6">
-        <v>0.143767980376711</v>
+        <v>0.09731161031231482</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1638593333333333</v>
+        <v>0.5641686666666667</v>
       </c>
       <c r="N6">
-        <v>0.491578</v>
+        <v>1.692506</v>
       </c>
       <c r="O6">
-        <v>0.04200979907888795</v>
+        <v>0.1700101714439774</v>
       </c>
       <c r="P6">
-        <v>0.04564092484387756</v>
+        <v>0.1729022081857796</v>
       </c>
       <c r="Q6">
-        <v>0.035896500294</v>
+        <v>0.123591865638</v>
       </c>
       <c r="R6">
-        <v>0.323068502646</v>
+        <v>1.112326790742</v>
       </c>
       <c r="S6">
-        <v>0.005897059029519692</v>
+        <v>0.01649447256870151</v>
       </c>
       <c r="T6">
-        <v>0.006561703587329528</v>
+        <v>0.01682539230511331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8034273333333334</v>
+        <v>1.165950333333333</v>
       </c>
       <c r="H7">
-        <v>2.410282</v>
+        <v>3.497851</v>
       </c>
       <c r="I7">
-        <v>0.5148142357462268</v>
+        <v>0.516371961904357</v>
       </c>
       <c r="J7">
-        <v>0.5272636707739565</v>
+        <v>0.5179213146581529</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.6561019999999999</v>
+        <v>0.3387653333333334</v>
       </c>
       <c r="N7">
-        <v>1.968306</v>
+        <v>1.016296</v>
       </c>
       <c r="O7">
-        <v>0.1682096017026181</v>
+        <v>0.1020856984836854</v>
       </c>
       <c r="P7">
-        <v>0.1827488337878287</v>
+        <v>0.1038222745268702</v>
       </c>
       <c r="Q7">
-        <v>0.5271302802546666</v>
+        <v>0.3949835533217778</v>
       </c>
       <c r="R7">
-        <v>4.744172522292</v>
+        <v>3.554851979896</v>
       </c>
       <c r="S7">
-        <v>0.08659669754571056</v>
+        <v>0.05271419240839727</v>
       </c>
       <c r="T7">
-        <v>0.0963568209326302</v>
+        <v>0.0537717689137563</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8034273333333334</v>
+        <v>1.165950333333333</v>
       </c>
       <c r="H8">
-        <v>2.410282</v>
+        <v>3.497851</v>
       </c>
       <c r="I8">
-        <v>0.5148142357462268</v>
+        <v>0.516371961904357</v>
       </c>
       <c r="J8">
-        <v>0.5272636707739565</v>
+        <v>0.5179213146581529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.622048333333333</v>
+        <v>1.622048333333334</v>
       </c>
       <c r="N8">
-        <v>4.866144999999999</v>
+        <v>4.866145</v>
       </c>
       <c r="O8">
-        <v>0.415856229812431</v>
+        <v>0.4887983532827969</v>
       </c>
       <c r="P8">
-        <v>0.4518008499656424</v>
+        <v>0.4971132840014691</v>
       </c>
       <c r="Q8">
-        <v>1.303197966987778</v>
+        <v>1.891227794932778</v>
       </c>
       <c r="R8">
-        <v>11.72878170289</v>
+        <v>17.021050154395</v>
       </c>
       <c r="S8">
-        <v>0.2140887071311939</v>
+        <v>0.2524017646602568</v>
       </c>
       <c r="T8">
-        <v>0.2382181746116782</v>
+        <v>0.2574655655840726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8034273333333334</v>
+        <v>1.165950333333333</v>
       </c>
       <c r="H9">
-        <v>2.410282</v>
+        <v>3.497851</v>
       </c>
       <c r="I9">
-        <v>0.5148142357462268</v>
+        <v>0.516371961904357</v>
       </c>
       <c r="J9">
-        <v>0.5272636707739565</v>
+        <v>0.5179213146581529</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.527538</v>
+        <v>0.6269413333333334</v>
       </c>
       <c r="N9">
-        <v>1.582614</v>
+        <v>1.880824</v>
       </c>
       <c r="O9">
-        <v>0.1352487217886789</v>
+        <v>0.1889264857530475</v>
       </c>
       <c r="P9">
-        <v>0.1469389733284818</v>
+        <v>0.1921403072182968</v>
       </c>
       <c r="Q9">
-        <v>0.423838448572</v>
+        <v>0.7309824565804444</v>
       </c>
       <c r="R9">
-        <v>3.814546037148</v>
+        <v>6.578842109223999</v>
       </c>
       <c r="S9">
-        <v>0.06962796734329275</v>
+        <v>0.09755634010399666</v>
       </c>
       <c r="T9">
-        <v>0.07747558245693183</v>
+        <v>0.09951356051332169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8034273333333334</v>
+        <v>1.165950333333333</v>
       </c>
       <c r="H10">
-        <v>2.410282</v>
+        <v>3.497851</v>
       </c>
       <c r="I10">
-        <v>0.5148142357462268</v>
+        <v>0.516371961904357</v>
       </c>
       <c r="J10">
-        <v>0.5272636707739565</v>
+        <v>0.5179213146581529</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.930955</v>
+        <v>0.166517</v>
       </c>
       <c r="N10">
-        <v>1.86191</v>
+        <v>0.333034</v>
       </c>
       <c r="O10">
-        <v>0.238675647617384</v>
+        <v>0.05017929103649284</v>
       </c>
       <c r="P10">
-        <v>0.1728704180741694</v>
+        <v>0.03402192606758435</v>
       </c>
       <c r="Q10">
-        <v>0.7479546931033334</v>
+        <v>0.1941505516556666</v>
       </c>
       <c r="R10">
-        <v>4.48772815862</v>
+        <v>1.164903309934</v>
       </c>
       <c r="S10">
-        <v>0.1228736211193793</v>
+        <v>0.02591117895948352</v>
       </c>
       <c r="T10">
-        <v>0.09114829120201511</v>
+        <v>0.01762068067612577</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8034273333333334</v>
+        <v>1.165950333333333</v>
       </c>
       <c r="H11">
-        <v>2.410282</v>
+        <v>3.497851</v>
       </c>
       <c r="I11">
-        <v>0.5148142357462268</v>
+        <v>0.516371961904357</v>
       </c>
       <c r="J11">
-        <v>0.5272636707739565</v>
+        <v>0.5179213146581529</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1638593333333333</v>
+        <v>0.5641686666666667</v>
       </c>
       <c r="N11">
-        <v>0.491578</v>
+        <v>1.692506</v>
       </c>
       <c r="O11">
-        <v>0.04200979907888795</v>
+        <v>0.1700101714439774</v>
       </c>
       <c r="P11">
-        <v>0.04564092484387756</v>
+        <v>0.1729022081857796</v>
       </c>
       <c r="Q11">
-        <v>0.1316490672217778</v>
+        <v>0.6577926449562221</v>
       </c>
       <c r="R11">
-        <v>1.184841604996</v>
+        <v>5.920133804606</v>
       </c>
       <c r="S11">
-        <v>0.02162724260665024</v>
+        <v>0.08778848577222267</v>
       </c>
       <c r="T11">
-        <v>0.02406480157070115</v>
+        <v>0.08954973897087662</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.110545</v>
+        <v>0.020264</v>
       </c>
       <c r="H12">
-        <v>0.22109</v>
+        <v>0.040528</v>
       </c>
       <c r="I12">
-        <v>0.07083420905591126</v>
+        <v>0.008974448685232641</v>
       </c>
       <c r="J12">
-        <v>0.0483647660196666</v>
+        <v>0.006000917432007717</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.6561019999999999</v>
+        <v>0.3387653333333334</v>
       </c>
       <c r="N12">
-        <v>1.968306</v>
+        <v>1.016296</v>
       </c>
       <c r="O12">
-        <v>0.1682096017026181</v>
+        <v>0.1020856984836854</v>
       </c>
       <c r="P12">
-        <v>0.1827488337878287</v>
+        <v>0.1038222745268702</v>
       </c>
       <c r="Q12">
-        <v>0.07252879558999999</v>
+        <v>0.006864740714666667</v>
       </c>
       <c r="R12">
-        <v>0.4351727735399999</v>
+        <v>0.041188444288</v>
       </c>
       <c r="S12">
-        <v>0.01191499409221482</v>
+        <v>0.0009161628625379664</v>
       </c>
       <c r="T12">
-        <v>0.008838604586515275</v>
+        <v>0.0006230288970389864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.110545</v>
+        <v>0.020264</v>
       </c>
       <c r="H13">
-        <v>0.22109</v>
+        <v>0.040528</v>
       </c>
       <c r="I13">
-        <v>0.07083420905591126</v>
+        <v>0.008974448685232641</v>
       </c>
       <c r="J13">
-        <v>0.0483647660196666</v>
+        <v>0.006000917432007717</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.622048333333333</v>
+        <v>1.622048333333334</v>
       </c>
       <c r="N13">
-        <v>4.866144999999999</v>
+        <v>4.866145</v>
       </c>
       <c r="O13">
-        <v>0.415856229812431</v>
+        <v>0.4887983532827969</v>
       </c>
       <c r="P13">
-        <v>0.4518008499656424</v>
+        <v>0.4971132840014691</v>
       </c>
       <c r="Q13">
-        <v>0.1793093330083333</v>
+        <v>0.03286918742666668</v>
       </c>
       <c r="R13">
-        <v>1.07585599805</v>
+        <v>0.19721512456</v>
       </c>
       <c r="S13">
-        <v>0.02945684711973681</v>
+        <v>0.004386695738962676</v>
       </c>
       <c r="T13">
-        <v>0.02185124239607479</v>
+        <v>0.002983135771647018</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.110545</v>
+        <v>0.020264</v>
       </c>
       <c r="H14">
-        <v>0.22109</v>
+        <v>0.040528</v>
       </c>
       <c r="I14">
-        <v>0.07083420905591126</v>
+        <v>0.008974448685232641</v>
       </c>
       <c r="J14">
-        <v>0.0483647660196666</v>
+        <v>0.006000917432007717</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.527538</v>
+        <v>0.6269413333333334</v>
       </c>
       <c r="N14">
-        <v>1.582614</v>
+        <v>1.880824</v>
       </c>
       <c r="O14">
-        <v>0.1352487217886789</v>
+        <v>0.1889264857530475</v>
       </c>
       <c r="P14">
-        <v>0.1469389733284818</v>
+        <v>0.1921403072182968</v>
       </c>
       <c r="Q14">
-        <v>0.05831668821</v>
+        <v>0.01270433917866667</v>
       </c>
       <c r="R14">
-        <v>0.34990012926</v>
+        <v>0.076226035072</v>
       </c>
       <c r="S14">
-        <v>0.009580236233724058</v>
+        <v>0.00169551105167206</v>
       </c>
       <c r="T14">
-        <v>0.007106669064202055</v>
+        <v>0.001153018118977596</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.110545</v>
+        <v>0.020264</v>
       </c>
       <c r="H15">
-        <v>0.22109</v>
+        <v>0.040528</v>
       </c>
       <c r="I15">
-        <v>0.07083420905591126</v>
+        <v>0.008974448685232641</v>
       </c>
       <c r="J15">
-        <v>0.0483647660196666</v>
+        <v>0.006000917432007717</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.930955</v>
+        <v>0.166517</v>
       </c>
       <c r="N15">
-        <v>1.86191</v>
+        <v>0.333034</v>
       </c>
       <c r="O15">
-        <v>0.238675647617384</v>
+        <v>0.05017929103649284</v>
       </c>
       <c r="P15">
-        <v>0.1728704180741694</v>
+        <v>0.03402192606758435</v>
       </c>
       <c r="Q15">
-        <v>0.102912420475</v>
+        <v>0.003374300488</v>
       </c>
       <c r="R15">
-        <v>0.4116496819</v>
+        <v>0.013497201952</v>
       </c>
       <c r="S15">
-        <v>0.01690640071988479</v>
+        <v>0.0004503314724683592</v>
       </c>
       <c r="T15">
-        <v>0.00836083732187915</v>
+        <v>0.0002041627692094447</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.110545</v>
+        <v>0.020264</v>
       </c>
       <c r="H16">
-        <v>0.22109</v>
+        <v>0.040528</v>
       </c>
       <c r="I16">
-        <v>0.07083420905591126</v>
+        <v>0.008974448685232641</v>
       </c>
       <c r="J16">
-        <v>0.0483647660196666</v>
+        <v>0.006000917432007717</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1638593333333333</v>
+        <v>0.5641686666666667</v>
       </c>
       <c r="N16">
-        <v>0.491578</v>
+        <v>1.692506</v>
       </c>
       <c r="O16">
-        <v>0.04200979907888795</v>
+        <v>0.1700101714439774</v>
       </c>
       <c r="P16">
-        <v>0.04564092484387756</v>
+        <v>0.1729022081857796</v>
       </c>
       <c r="Q16">
-        <v>0.01811383000333333</v>
+        <v>0.01143231386133333</v>
       </c>
       <c r="R16">
-        <v>0.10868298002</v>
+        <v>0.06859388316800001</v>
       </c>
       <c r="S16">
-        <v>0.002975730890350777</v>
+        <v>0.001525747559591579</v>
       </c>
       <c r="T16">
-        <v>0.002207412650995326</v>
+        <v>0.001037571875134672</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>26</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8526826666666666</v>
+      </c>
+      <c r="H17">
+        <v>2.558048</v>
+      </c>
+      <c r="I17">
+        <v>0.3776330851158373</v>
+      </c>
+      <c r="J17">
+        <v>0.3787661575975245</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.4275746666666667</v>
-      </c>
-      <c r="H17">
-        <v>1.282724</v>
-      </c>
-      <c r="I17">
-        <v>0.2739781385470011</v>
-      </c>
-      <c r="J17">
-        <v>0.2806035828296658</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>0.6561019999999999</v>
+        <v>0.3387653333333334</v>
       </c>
       <c r="N17">
-        <v>1.968306</v>
+        <v>1.016296</v>
       </c>
       <c r="O17">
-        <v>0.1682096017026181</v>
+        <v>0.1020856984836854</v>
       </c>
       <c r="P17">
-        <v>0.1827488337878287</v>
+        <v>0.1038222745268702</v>
       </c>
       <c r="Q17">
-        <v>0.2805325939493333</v>
+        <v>0.2888593278008889</v>
       </c>
       <c r="R17">
-        <v>2.524793345543999</v>
+        <v>2.599733950208</v>
       </c>
       <c r="S17">
-        <v>0.04608575356021578</v>
+        <v>0.03855093726459928</v>
       </c>
       <c r="T17">
-        <v>0.05127997751880781</v>
+        <v>0.03932436399557799</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4275746666666667</v>
+        <v>0.8526826666666666</v>
       </c>
       <c r="H18">
-        <v>1.282724</v>
+        <v>2.558048</v>
       </c>
       <c r="I18">
-        <v>0.2739781385470011</v>
+        <v>0.3776330851158373</v>
       </c>
       <c r="J18">
-        <v>0.2806035828296658</v>
+        <v>0.3787661575975245</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.622048333333333</v>
+        <v>1.622048333333334</v>
       </c>
       <c r="N18">
-        <v>4.866144999999999</v>
+        <v>4.866145</v>
       </c>
       <c r="O18">
-        <v>0.415856229812431</v>
+        <v>0.4887983532827969</v>
       </c>
       <c r="P18">
-        <v>0.4518008499656424</v>
+        <v>0.4971132840014691</v>
       </c>
       <c r="Q18">
-        <v>0.6935467754422221</v>
+        <v>1.383092498328889</v>
       </c>
       <c r="R18">
-        <v>6.24192097898</v>
+        <v>12.44783248496</v>
       </c>
       <c r="S18">
-        <v>0.1139355157471837</v>
+        <v>0.1845864301497235</v>
       </c>
       <c r="T18">
-        <v>0.1267769372258475</v>
+        <v>0.1882896884719234</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4275746666666667</v>
+        <v>0.8526826666666666</v>
       </c>
       <c r="H19">
-        <v>1.282724</v>
+        <v>2.558048</v>
       </c>
       <c r="I19">
-        <v>0.2739781385470011</v>
+        <v>0.3776330851158373</v>
       </c>
       <c r="J19">
-        <v>0.2806035828296658</v>
+        <v>0.3787661575975245</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.527538</v>
+        <v>0.6269413333333334</v>
       </c>
       <c r="N19">
-        <v>1.582614</v>
+        <v>1.880824</v>
       </c>
       <c r="O19">
-        <v>0.1352487217886789</v>
+        <v>0.1889264857530475</v>
       </c>
       <c r="P19">
-        <v>0.1469389733284818</v>
+        <v>0.1921403072182968</v>
       </c>
       <c r="Q19">
-        <v>0.225561884504</v>
+        <v>0.5345820079502221</v>
       </c>
       <c r="R19">
-        <v>2.030056960536</v>
+        <v>4.811238071552</v>
       </c>
       <c r="S19">
-        <v>0.03705519303652346</v>
+        <v>0.07134489167501661</v>
       </c>
       <c r="T19">
-        <v>0.0412316023732847</v>
+        <v>0.07277624588468219</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4275746666666667</v>
+        <v>0.8526826666666666</v>
       </c>
       <c r="H20">
-        <v>1.282724</v>
+        <v>2.558048</v>
       </c>
       <c r="I20">
-        <v>0.2739781385470011</v>
+        <v>0.3776330851158373</v>
       </c>
       <c r="J20">
-        <v>0.2806035828296658</v>
+        <v>0.3787661575975245</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.930955</v>
+        <v>0.166517</v>
       </c>
       <c r="N20">
-        <v>1.86191</v>
+        <v>0.333034</v>
       </c>
       <c r="O20">
-        <v>0.238675647617384</v>
+        <v>0.05017929103649284</v>
       </c>
       <c r="P20">
-        <v>0.1728704180741694</v>
+        <v>0.03402192606758435</v>
       </c>
       <c r="Q20">
-        <v>0.3980527738066666</v>
+        <v>0.1419861596053333</v>
       </c>
       <c r="R20">
-        <v>2.38831664284</v>
+        <v>0.8519169576319999</v>
       </c>
       <c r="S20">
-        <v>0.06539190965071086</v>
+        <v>0.01894936048303627</v>
       </c>
       <c r="T20">
-        <v>0.04850805867687416</v>
+        <v>0.01288635421068598</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4275746666666667</v>
+        <v>0.8526826666666666</v>
       </c>
       <c r="H21">
-        <v>1.282724</v>
+        <v>2.558048</v>
       </c>
       <c r="I21">
-        <v>0.2739781385470011</v>
+        <v>0.3776330851158373</v>
       </c>
       <c r="J21">
-        <v>0.2806035828296658</v>
+        <v>0.3787661575975245</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1638593333333333</v>
+        <v>0.5641686666666667</v>
       </c>
       <c r="N21">
-        <v>0.491578</v>
+        <v>1.692506</v>
       </c>
       <c r="O21">
-        <v>0.04200979907888795</v>
+        <v>0.1700101714439774</v>
       </c>
       <c r="P21">
-        <v>0.04564092484387756</v>
+        <v>0.1729022081857796</v>
       </c>
       <c r="Q21">
-        <v>0.07006209983022221</v>
+        <v>0.481056843143111</v>
       </c>
       <c r="R21">
-        <v>0.630558898472</v>
+        <v>4.329511588288</v>
       </c>
       <c r="S21">
-        <v>0.01150976655236724</v>
+        <v>0.06420146554346161</v>
       </c>
       <c r="T21">
-        <v>0.01280700703485155</v>
+        <v>0.06548950503465499</v>
       </c>
     </row>
   </sheetData>
